--- a/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 2,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; -0,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 1,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 5,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; -0,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 4,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,96%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,34; 87,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,92; -19,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,41; 118,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,9; 64,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,53; 58,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,89; 268,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,14; 48,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,93; 0,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,29; 168,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 1,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 2,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 1,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 2,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,54; 289,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 204,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 201,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 148,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,93; 48,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,79; 79,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,48; 151,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 72,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 96,49</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 1,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 1,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 2,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 2,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,64</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>216,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,51%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,62; 1016,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; 1152,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,89; 482,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,01; 294,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,54; 626,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 562,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,82; 309,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,63; 519,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 275,05</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 1,35</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,09%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,9; 121,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,79; 64,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 84,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 80,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,28; 41,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 96,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 81,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,61; 32,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,94; 75,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,89</t>
+          <t>-0,99; 2,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,85</t>
+          <t>1,0; 5,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,23</t>
+          <t>0,74; 3,82</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>112,72%</t>
+          <t>106,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>67,93%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 118,38</t>
+          <t>-25,31; 120,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,89; 268,29</t>
+          <t>27,62; 249,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,29; 168,83</t>
+          <t>20,52; 141,42</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,93</t>
+          <t>-0,16; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,37</t>
+          <t>-0,83; 1,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,4</t>
+          <t>-0,19; 1,22</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>30,84%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 201,18</t>
+          <t>-12,53; 175,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 79,72</t>
+          <t>-30,38; 72,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 96,49</t>
+          <t>-10,07; 82,37</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,68</t>
+          <t>-0,2; 2,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,64</t>
+          <t>-0,21; 1,61</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>76,51%</t>
+          <t>74,69%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 482,18</t>
+          <t>-63,85; 477,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 562,48</t>
+          <t>-21,94; 558,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 275,05</t>
+          <t>-21,35; 275,48</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,24</t>
+          <t>-0,34; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,86</t>
+          <t>-0,03; 1,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,35</t>
+          <t>0,04; 1,19</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>30,47%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 84,31</t>
+          <t>-16,0; 74,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 96,07</t>
+          <t>-1,24; 83,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,94; 75,28</t>
+          <t>1,53; 66,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,04</t>
+          <t>-1,29; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,49</t>
+          <t>-3,22; -0,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,9</t>
+          <t>-1,02; 2,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,3</t>
+          <t>-1,12; 1,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,09</t>
+          <t>-1,58; 1,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,32</t>
+          <t>1,08; 5,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,16</t>
+          <t>-0,8; 1,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; -0,01</t>
+          <t>-1,94; -0,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,82</t>
+          <t>0,62; 3,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 87,57</t>
+          <t>-33,82; 83,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,92; -19,96</t>
+          <t>-82,24; -22,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 120,99</t>
+          <t>-27,8; 116,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 64,4</t>
+          <t>-36,39; 74,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 58,88</t>
+          <t>-50,1; 51,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,62; 249,35</t>
+          <t>28,08; 234,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 48,29</t>
+          <t>-25,77; 53,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 0,71</t>
+          <t>-61,35; 0,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,52; 141,42</t>
+          <t>16,74; 151,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,64</t>
+          <t>0,55; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,87</t>
+          <t>0,12; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,71</t>
+          <t>-0,21; 1,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,53</t>
+          <t>-0,02; 2,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,79</t>
+          <t>-1,17; 0,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,26</t>
+          <t>-0,78; 1,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,15</t>
+          <t>0,58; 2,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,03</t>
+          <t>-0,29; 1,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,22</t>
+          <t>-0,14; 1,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,54; 289,02</t>
+          <t>27,41; 265,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 204,54</t>
+          <t>2,67; 191,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 175,91</t>
+          <t>-12,42; 170,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 148,17</t>
+          <t>-1,58; 135,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 48,72</t>
+          <t>-41,89; 42,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 72,62</t>
+          <t>-26,82; 77,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 151,35</t>
+          <t>26,57; 144,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 72,6</t>
+          <t>-14,09; 74,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 82,37</t>
+          <t>-7,18; 83,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,22</t>
+          <t>-0,39; 2,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,51</t>
+          <t>0,2; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,43</t>
+          <t>-0,85; 1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,92</t>
+          <t>-1,06; 2,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,48</t>
+          <t>-0,31; 3,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,66</t>
+          <t>-0,34; 2,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,95</t>
+          <t>-0,35; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,86</t>
+          <t>0,48; 2,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,61</t>
+          <t>-0,2; 1,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,62; 1016,1</t>
+          <t>-49,67; 908,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 1152,84</t>
+          <t>-3,06; 1236,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 477,85</t>
+          <t>-68,61; 531,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 294,65</t>
+          <t>-70,79; 372,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 626,27</t>
+          <t>-37,38; 511,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 558,43</t>
+          <t>-26,61; 412,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 309,2</t>
+          <t>-34,31; 312,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 519,56</t>
+          <t>27,9; 525,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 275,48</t>
+          <t>-16,31; 261,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,82</t>
+          <t>0,33; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,93</t>
+          <t>-0,43; 1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,13</t>
+          <t>-0,34; 1,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,5</t>
+          <t>-0,08; 1,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,78</t>
+          <t>-0,73; 0,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,62</t>
+          <t>0,02; 1,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,41</t>
+          <t>0,24; 1,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,6</t>
+          <t>-0,38; 0,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,19</t>
+          <t>0,06; 1,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,9; 121,35</t>
+          <t>12,82; 124,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 64,17</t>
+          <t>-20,68; 67,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 74,2</t>
+          <t>-16,19; 73,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 80,86</t>
+          <t>-3,81; 73,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 41,48</t>
+          <t>-28,52; 42,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 83,31</t>
+          <t>0,84; 91,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 81,13</t>
+          <t>11,88; 81,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 32,51</t>
+          <t>-16,98; 35,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 66,86</t>
+          <t>2,62; 66,04</t>
         </is>
       </c>
     </row>
